--- a/xlsx/透明度_intext.xlsx
+++ b/xlsx/透明度_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%89%87</t>
   </si>
   <si>
-    <t>圖片</t>
+    <t>图片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%8F%E6%98%8E</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>新聞</t>
+    <t>新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/transparency_(behavior)</t>
